--- a/staticfiles/template/User Import Template.xlsx
+++ b/staticfiles/template/User Import Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Company Name</t>
   </si>
   <si>
     <t>Department</t>
@@ -2047,23 +2044,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="22.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="255" width="16.2857142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="127" customHeight="1" spans="1:7">
+    <row r="1" ht="127" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2072,9 +2068,8 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:7">
+    <row r="2" ht="20.1" customHeight="1" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2084,7 +2079,7 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2093,19 +2088,16 @@
       <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+    </row>
+    <row r="3" ht="17.1" customHeight="1" spans="1:6">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="17.1" customHeight="1" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
@@ -2116,22 +2108,19 @@
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8" t="s">
+    </row>
+    <row r="4" ht="17.1" customHeight="1" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" ht="17.1" customHeight="1" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>16</v>
@@ -2139,13 +2128,10 @@
       <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="72" orientation="portrait"/>

--- a/staticfiles/template/User Import Template.xlsx
+++ b/staticfiles/template/User Import Template.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="16360"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <r>
       <rPr>
@@ -36,8 +23,8 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">User Import Template 
-1. </t>
+      <t>User Import Template
+1.</t>
     </r>
     <r>
       <rPr>
@@ -46,7 +33,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>Red fields are mandatory</t>
+      <t>Fields in red are required. (Either phone number or email is needed. Do not use commas" , " in any field</t>
     </r>
     <r>
       <rPr>
@@ -55,10 +42,10 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> (only one of phone number or email is required; do not use the "," character in field values) 
-2. Use "&gt;" to separate hierarchical departments, starting from the top-level department, for example, "R&amp;D Department&gt;Front-end Group". If there are multiple departments, use the English symbol “;” to separate them. The first department listed is the member's primary department by default 
-3. If there are multiple positions, use the English symbol “;” to separate them 
-4. The phone number prefix needs to include the country code and + sign, for example, a US number: +1**********</t>
+      <t xml:space="preserve">
+2.Use" &gt; "to separate department levels, starting from the top level. Example: R&amp;D&gt;Frontend Team. For multiple departments, use" ; ". The first one is set as the primary department.
+3.For multiple positions or roles, separate them with" ; ".
+4.Phone numbers must include the country code and " + " sign. Example: US number: +1**********</t>
     </r>
   </si>
   <si>
@@ -71,59 +58,126 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Job title</t>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
   <si>
     <t>Employee ID</t>
   </si>
   <si>
-    <t>Location</t>
+    <t>Site</t>
   </si>
   <si>
-    <t>+8615202112304</t>
+    <t>Work Phone</t>
   </si>
   <si>
-    <t>John Doe</t>
+    <t>15202112304</t>
   </si>
   <si>
-    <t>R&amp;D Department&gt;Front-end Group;East China Business</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Zhang San (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eg.:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Multiple departments/positions)</t>
+    </r>
   </si>
   <si>
-    <t>Unit Front-end;Testing</t>
+    <t>R&amp;D &gt; Frontend Team; East China Division</t>
+  </si>
+  <si>
+    <t>Frontend; Testing</t>
+  </si>
+  <si>
+    <t>Team Lead; Staff</t>
   </si>
   <si>
     <t>0001</t>
   </si>
   <si>
-    <t>New York</t>
+    <t>Shanghai</t>
   </si>
   <si>
-    <t>+8615202112305</t>
+    <t>15202112305</t>
   </si>
   <si>
-    <t>Jeffery</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Li Ming (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eg.:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Single department/position example)</t>
+    </r>
   </si>
   <si>
-    <t>Front-end</t>
+    <t>R&amp;D &gt; Frontend Team</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Senior Staff</t>
   </si>
   <si>
     <t>0002</t>
   </si>
   <si>
-    <t>Tokyo</t>
+    <t>Beijing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -133,6 +187,25 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="16"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -144,30 +217,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="14"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="16"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -178,6 +238,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -186,8 +283,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +314,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -209,27 +360,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,87 +381,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,204 +402,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -542,76 +603,40 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,23 +653,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,22 +700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,230 +719,239 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2044,102 +2069,148 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C$1:C$1048576"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="255" width="16.2857142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.9107142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.3660714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.3660714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.2678571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1785714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.4553571428571" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7232142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="127" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="143.5" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" ht="31" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" ht="17.1" customHeight="1" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="31" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="17.1" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="46" spans="1:8">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.4" spans="1:8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="A4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>